--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t xml:space="preserve">KR=Krall</t>
   </si>
@@ -43,16 +43,19 @@
     <t xml:space="preserve">Aktivitet FÖRSENAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Vecka 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vecka 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vecka 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vecka 4</t>
+    <t xml:space="preserve">      Vecka 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Vecka 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Vecka 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Vecka 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Vecka 5</t>
   </si>
   <si>
     <t xml:space="preserve">Aktivitet</t>
@@ -61,6 +64,78 @@
     <t xml:space="preserve">Ansvarig</t>
   </si>
   <si>
+    <t xml:space="preserve">09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kommentarer</t>
   </si>
   <si>
@@ -121,7 +196,7 @@
     <t xml:space="preserve">Registrera och bjuda in användare till projektet</t>
   </si>
   <si>
-    <t xml:space="preserve">Testa GitHub</t>
+    <t xml:space="preserve">Testa GitHub funktionalitet</t>
   </si>
 </sst>
 </file>
@@ -264,7 +339,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +430,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -485,6 +566,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -559,7 +647,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,11 +760,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,40 +889,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="0" width="8.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="35.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="35.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -820,7 +944,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="0"/>
-      <c r="V2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -829,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="0"/>
-      <c r="V3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -863,74 +987,96 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="8"/>
+      <c r="V4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20" t="n">
-        <v>42990</v>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>42991</v>
-      </c>
-      <c r="E5" s="20" t="n">
-        <v>42992</v>
-      </c>
-      <c r="F5" s="20" t="n">
-        <v>42993</v>
-      </c>
-      <c r="G5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="H5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="I5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="J5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="K5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="L5" s="20" t="n">
-        <v>42994</v>
-      </c>
-      <c r="M5" s="20" t="n">
-        <v>42994</v>
-      </c>
-      <c r="N5" s="20" t="n">
-        <v>42994</v>
-      </c>
-      <c r="O5" s="20" t="n">
-        <v>42994</v>
-      </c>
-      <c r="P5" s="20" t="n">
-        <v>42994</v>
-      </c>
-      <c r="Q5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="R5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="S5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="T5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="U5" s="21" t="n">
-        <v>42994</v>
-      </c>
-      <c r="V5" s="18" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,148 +1089,179 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="V10" s="0" t="s">
-        <v>20</v>
+      <c r="AA10" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="29"/>
+        <v>51</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.4125" right="0.268055555555556" top="0.484027777777778" bottom="0.484027777777778" header="0.21875" footer="0.21875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.213888888888889" right="0.268055555555556" top="0.419444444444444" bottom="0.484027777777778" header="0.154166666666667" footer="0.21875"/>
+  <pageSetup paperSize="9" scale="70" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sida &amp;P</oddFooter>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t xml:space="preserve">KR=Krall</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">EL = Elio</t>
   </si>
   <si>
-    <t xml:space="preserve">Aktivitet FÖRSENAD</t>
+    <t xml:space="preserve">Aktivitet FÖRSENAD / PAUSAD</t>
   </si>
   <si>
     <t xml:space="preserve">      Vecka 1</t>
@@ -151,27 +151,36 @@
     <t xml:space="preserve">Uppstartsmöte</t>
   </si>
   <si>
+    <t xml:space="preserve">EL/BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beslut om typ av projekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi beslutade att göra en nätbutik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationssökning</t>
+  </si>
+  <si>
     <t xml:space="preserve">BJ/EL</t>
   </si>
   <si>
-    <t xml:space="preserve">Beslut om typ av projekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vi beslutade att göra en nätbutik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informationssökning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Databasdesign</t>
   </si>
   <si>
+    <t xml:space="preserve">Beslut om vilken typ av databas vi ska implementera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi beslutade oss för att köra MSSQL  (inte MySQL eller SQL för ’Identitys’ skull)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Söka och sortera ut  användbar programkod</t>
+  </si>
+  <si>
     <t xml:space="preserve">BJ </t>
   </si>
   <si>
-    <t xml:space="preserve">Söka och sortera ut  användbar programkod</t>
-  </si>
-  <si>
     <t xml:space="preserve">Plugga på hur GitHub fungerar</t>
   </si>
   <si>
@@ -181,6 +190,15 @@
     <t xml:space="preserve">Skapa projektet i GitHub</t>
   </si>
   <si>
+    <t xml:space="preserve">Besluta vilken applikationsversion vi bygger vidare på</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lägga över projektapplikationen till GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beror på vilken typ av databas det blir (Akt13)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skapa aktivitetsplan</t>
   </si>
   <si>
@@ -196,7 +214,60 @@
     <t xml:space="preserve">Registrera och bjuda in användare till projektet</t>
   </si>
   <si>
+    <t xml:space="preserve">Björn ska skapa ett konto i GitHub</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testa GitHub funktionalitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to create Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to create Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing products – Listing product name, price and description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handling orders - allowing users to place them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handling orders - allowing admins to change them or delete them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping cart - ability to go to cashier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping cart - ability to print out a receipt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping history in the User’s management page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="Segoe UI;Tahoma"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Segoe UI;Tahoma"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> interface being able to edit: products-users-orders </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Display pictures of all the products (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order verification sent by e-mail to User (optional)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\ MMM\ YY"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -337,6 +408,38 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Segoe UI;Tahoma"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Segoe UI;Tahoma"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -647,7 +750,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -772,6 +875,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -780,20 +895,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -877,7 +1004,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF2C3E50"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -889,22 +1016,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.36"/>
@@ -918,11 +1045,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="35.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="36.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1131,17 +1258,17 @@
         <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
@@ -1153,115 +1280,214 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="33"/>
+      <c r="AA13" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="0"/>
+      <c r="AA18" s="38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="37"/>
+      <c r="AA23" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="40" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.213888888888889" right="0.268055555555556" top="0.419444444444444" bottom="0.484027777777778" header="0.154166666666667" footer="0.21875"/>
-  <pageSetup paperSize="9" scale="70" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="65" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sida &amp;P</oddFooter>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t xml:space="preserve">KR=Krall</t>
   </si>
@@ -169,13 +169,19 @@
     <t xml:space="preserve">Databasdesign</t>
   </si>
   <si>
+    <t xml:space="preserve">Göra ett flödesschema av databasdesignen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Beslut om vilken typ av databas vi ska implementera</t>
   </si>
   <si>
     <t xml:space="preserve">Vi beslutade oss för att köra MSSQL  (inte MySQL eller SQL för ’Identitys’ skull)</t>
   </si>
   <si>
-    <t xml:space="preserve">Söka och sortera ut  användbar programkod</t>
+    <t xml:space="preserve">Söka och sortera ut användbar programkod</t>
   </si>
   <si>
     <t xml:space="preserve">BJ </t>
@@ -184,9 +190,6 @@
     <t xml:space="preserve">Plugga på hur GitHub fungerar</t>
   </si>
   <si>
-    <t xml:space="preserve">EL  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Skapa projektet i GitHub</t>
   </si>
   <si>
@@ -203,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Skapa projektspecifikation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Göra ett flödesschema av databasdesignen</t>
   </si>
   <si>
     <t xml:space="preserve">Köra en demo av GitHub</t>
@@ -250,6 +250,7 @@
         <color rgb="FF008080"/>
         <rFont val="Segoe UI;Tahoma"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">admin</t>
     </r>
@@ -259,6 +260,7 @@
         <color rgb="FF2C3E50"/>
         <rFont val="Segoe UI;Tahoma"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> interface being able to edit: products-users-orders </t>
     </r>
@@ -268,6 +270,12 @@
   </si>
   <si>
     <t xml:space="preserve">Order verification sent by e-mail to User (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Förbereda och genomföra en redovisning av projektet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projekt och skolavslutning</t>
   </si>
 </sst>
 </file>
@@ -434,12 +442,14 @@
       <color rgb="FF008080"/>
       <name val="Segoe UI;Tahoma"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF2C3E50"/>
       <name val="Segoe UI;Tahoma"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -867,59 +877,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,22 +1026,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.36"/>
@@ -1045,7 +1055,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.89"/>
@@ -1280,45 +1290,26 @@
         <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="33"/>
-      <c r="AA13" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="34"/>
+      <c r="AA14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -1328,61 +1319,81 @@
         <v>54</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="0"/>
-      <c r="AA18" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="0"/>
+      <c r="AA19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="33"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,18 +1401,17 @@
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="26"/>
@@ -1411,10 +1421,10 @@
         <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="36"/>
       <c r="AA23" s="0" t="s">
         <v>64</v>
       </c>
@@ -1424,70 +1434,83 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="33"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="38" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="38" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="38" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="38" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="41"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z37" s="42"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.213888888888889" right="0.268055555555556" top="0.419444444444444" bottom="0.484027777777778" header="0.154166666666667" footer="0.21875"/>
-  <pageSetup paperSize="9" scale="65" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sida &amp;P</oddFooter>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t xml:space="preserve">KR=Krall</t>
   </si>
@@ -184,16 +184,22 @@
     <t xml:space="preserve">Söka och sortera ut användbar programkod</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugga på hur GitHub fungerar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa projektet i GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besluta vilken applikationsversion vi bygger vidare på</t>
+  </si>
+  <si>
     <t xml:space="preserve">BJ </t>
   </si>
   <si>
-    <t xml:space="preserve">Plugga på hur GitHub fungerar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skapa projektet i GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Besluta vilken applikationsversion vi bygger vidare på</t>
+    <t xml:space="preserve">Beslut: Vi skapar en ny tomt projekt och plockar in den kod vi behöver</t>
   </si>
   <si>
     <t xml:space="preserve">Lägga över projektapplikationen till GitHub</t>
@@ -218,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Testa GitHub funktionalitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sätta sig in i exempelprojektets programkod</t>
   </si>
   <si>
     <t xml:space="preserve">Ability to create Users </t>
@@ -760,7 +769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -869,15 +878,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,34 +918,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -923,10 +944,6 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1026,12 +1043,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,7 +1072,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.89"/>
@@ -1284,6 +1301,7 @@
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -1292,9 +1310,9 @@
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="0"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1304,9 +1322,9 @@
         <v>47</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="34"/>
+      <c r="F14" s="33"/>
       <c r="AA14" s="0" t="s">
         <v>52</v>
       </c>
@@ -1318,11 +1336,11 @@
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -1339,7 +1357,7 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
-      <c r="X15" s="29"/>
+      <c r="X15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1348,7 +1366,7 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,7 +1376,7 @@
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,49 +1384,54 @@
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="26"/>
+      <c r="AA18" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="0"/>
-      <c r="AA19" s="37" t="s">
-        <v>59</v>
+      <c r="E19" s="27"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36"/>
+      <c r="AA19" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -1418,94 +1441,105 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="40"/>
       <c r="AA23" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
-        <v>66</v>
-      </c>
+      <c r="A25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
-        <v>67</v>
+      <c r="A26" s="41" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
-        <v>68</v>
+      <c r="A27" s="41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38" t="s">
-        <v>69</v>
+      <c r="A28" s="42" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
-        <v>70</v>
+      <c r="A29" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
-        <v>71</v>
+      <c r="A30" s="42" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="s">
-        <v>72</v>
+      <c r="A31" s="41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38" t="s">
-        <v>73</v>
+      <c r="A32" s="41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="s">
-        <v>74</v>
+      <c r="A33" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>75</v>
+      <c r="A34" s="43" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
-        <v>76</v>
+      <c r="A35" s="41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="41"/>
+      <c r="A36" s="41" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z37" s="42"/>
+        <v>80</v>
+      </c>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="30"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z38" s="44"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t xml:space="preserve">KR=Krall</t>
   </si>
@@ -202,10 +202,13 @@
     <t xml:space="preserve">Beslut: Vi skapar en ny tomt projekt och plockar in den kod vi behöver</t>
   </si>
   <si>
+    <t xml:space="preserve">Få databasen att fungera som den ska</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lägga över projektapplikationen till GitHub</t>
   </si>
   <si>
-    <t xml:space="preserve">Beror på vilken typ av databas det blir (Akt13)</t>
+    <t xml:space="preserve">Beror på vilken typ av databas det blir och att den fungerar (Akt13+19)</t>
   </si>
   <si>
     <t xml:space="preserve">Skapa aktivitetsplan</t>
@@ -226,10 +229,16 @@
     <t xml:space="preserve">Testa GitHub funktionalitet</t>
   </si>
   <si>
+    <t xml:space="preserve">Pluggar och tränar programmeringsmetodik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sätta sig in i exempelprojektets programkod</t>
   </si>
   <si>
     <t xml:space="preserve">Ability to create Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Är beroende av att applikationen ligger i GitHub (Akt 20)</t>
   </si>
   <si>
     <t xml:space="preserve">Ability to create Products</t>
@@ -675,15 +684,15 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
+      <left/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
+      <left style="hair"/>
+      <right/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -769,7 +778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -870,80 +879,112 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1043,12 +1084,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,8 +1341,9 @@
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -1311,8 +1353,9 @@
         <v>50</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -1321,10 +1364,10 @@
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="27"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="32"/>
       <c r="AA14" s="0" t="s">
         <v>52</v>
       </c>
@@ -1336,28 +1379,28 @@
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -1366,7 +1409,7 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,8 +1430,8 @@
         <v>58</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="31"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="26"/>
       <c r="AA18" s="0" t="s">
         <v>59</v>
@@ -1399,25 +1442,29 @@
         <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36"/>
-      <c r="AA19" s="38" t="s">
-        <v>61</v>
-      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="AA20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1426,7 +1473,7 @@
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,7 +1483,7 @@
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,21 +1493,24 @@
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="40"/>
-      <c r="AA23" s="0" t="s">
-        <v>66</v>
-      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="AA24" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1469,77 +1519,102 @@
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="40"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="47" t="s">
         <v>71</v>
       </c>
+      <c r="AA28" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>72</v>
+      <c r="A29" s="47" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="s">
-        <v>73</v>
+      <c r="A30" s="48" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
-        <v>74</v>
+      <c r="A31" s="47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
-        <v>75</v>
+      <c r="A32" s="48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
-        <v>76</v>
+      <c r="A33" s="47" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43" t="s">
-        <v>77</v>
+      <c r="A34" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
-        <v>78</v>
+      <c r="A35" s="47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="s">
-        <v>79</v>
+      <c r="A36" s="49" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="30"/>
+      <c r="A37" s="47" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z38" s="44"/>
+      <c r="A38" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="51"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z40" s="52"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
-  <si>
-    <t xml:space="preserve">KR=Krall</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+  <si>
+    <t xml:space="preserve">KR = Krall</t>
   </si>
   <si>
     <t xml:space="preserve">Aktivitet PÅGÅR</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ=Björn</t>
+    <t xml:space="preserve">BJ = Björn</t>
   </si>
   <si>
     <t xml:space="preserve">Nätbutikprojektet – Björn / Elio – Oktober 2017</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Beslut om vilken typ av databas vi ska implementera</t>
   </si>
   <si>
-    <t xml:space="preserve">Vi beslutade oss för att köra MSSQL  (inte MySQL eller SQL för ’Identitys’ skull)</t>
+    <t xml:space="preserve">Vi beslutade oss för att köra MySQL  (inte MSSQL eller SQLlite) eftersom den är mycket enklare att hantera</t>
   </si>
   <si>
     <t xml:space="preserve">Söka och sortera ut användbar programkod</t>
@@ -187,6 +187,9 @@
     <t xml:space="preserve">BJ</t>
   </si>
   <si>
+    <t xml:space="preserve">Sker löpande</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plugga på hur GitHub fungerar</t>
   </si>
   <si>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">Lägga över projektapplikationen till GitHub</t>
   </si>
   <si>
-    <t xml:space="preserve">Beror på vilken typ av databas det blir och att den fungerar (Akt13+19)</t>
+    <t xml:space="preserve">Vi kör nu dubblerad applikation utan GitHub…</t>
   </si>
   <si>
     <t xml:space="preserve">Skapa aktivitetsplan</t>
@@ -235,31 +238,58 @@
     <t xml:space="preserve">Sätta sig in i exempelprojektets programkod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ability to create Users </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Är beroende av att applikationen ligger i GitHub (Akt 20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability to create Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Showing products – Listing product name, price and description</t>
+    <t xml:space="preserve">Vi kör nu dubblerad applikation utan GitHub… (Applikationen ligger inte i GitHub (Akt 20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to create User account by user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to create Products by Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lägga till fältet ’ItemDescription’ i tabellen ’Items’ (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing products – Listing product name, category, price and description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description fattas</t>
   </si>
   <si>
     <t xml:space="preserve">Handling orders - allowing users to place them</t>
   </si>
   <si>
-    <t xml:space="preserve">Handling orders - allowing admins to change them or delete them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping cart - ability to go to cashier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping cart - ability to print out a receipt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shopping history in the User’s management page</t>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Handling</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-allowing Admin to change quantity, add new item or delete item.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -284,10 +314,70 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Shopping cart - ability to go to cashier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping cart - ability to print out a receipt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping cart – Möjlighet att ändra antal i översikten (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order verification sent by e-mail to User (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping history in the User’s management page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi har lagt den på den övre menyraden istället…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ta med ordernummer (OrderID) i historiken</t>
+  </si>
+  <si>
     <t xml:space="preserve">Display pictures of all the products (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">Order verification sent by e-mail to User (optional)</t>
+    <t xml:space="preserve">Lägga till ett menyval för kategorier i övre menyfältet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lägga till funktion som visar bilder uppförstorat i detaljsidan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skapa en gemensam databas under utvecklingsfasen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligger i Björns mobil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slutsumman i ordern blir inte korrekt (felmeddelande)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyder på problem med komma och punkt som decimalavdelare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomföra applikations och systemtester</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sker löpande - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Grön ruta innebär stor genomgång av hela applikationen</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Förbereda och genomföra en redovisning av projektet</t>
@@ -304,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\ MMM\ YY"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,7 +539,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7"/>
       <color rgb="FF2C3E50"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -467,6 +572,20 @@
       <color rgb="FF2C3E50"/>
       <name val="Segoe UI;Tahoma"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -778,7 +897,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,6 +1030,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -927,55 +1050,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1084,18 +1227,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.2"/>
@@ -1117,7 +1260,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="39.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1383,28 +1526,31 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="35"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="AA15" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -1414,7 +1560,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
@@ -1424,51 +1570,55 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="30"/>
       <c r="G18" s="26"/>
       <c r="AA18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="36"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
       <c r="AA20" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -1478,7 +1628,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -1488,7 +1638,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>50</v>
@@ -1498,23 +1648,27 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
       <c r="AA24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
@@ -1524,18 +1678,22 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -1543,78 +1701,264 @@
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="G27" s="46"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="AA27" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="47" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="47" t="s">
-        <v>75</v>
+      <c r="A31" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="AA31" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="s">
-        <v>76</v>
-      </c>
+      <c r="A32" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47" t="s">
-        <v>77</v>
+      <c r="A33" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47" t="s">
-        <v>78</v>
+      <c r="A34" s="51" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>79</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="A36" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
-        <v>81</v>
-      </c>
+      <c r="A37" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="53"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
-        <v>82</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="51"/>
+      <c r="A39" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="26"/>
+      <c r="AA39" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z40" s="52"/>
+      <c r="A40" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="54"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="54"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="54"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="26"/>
+      <c r="AA44" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="54"/>
+      <c r="AA45" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="26"/>
+      <c r="AA46" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="57"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z48" s="58"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t xml:space="preserve">KR = Krall</t>
   </si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Testa GitHub funktionalitet</t>
   </si>
   <si>
-    <t xml:space="preserve">Pluggar och tränar programmeringsmetodik</t>
+    <t xml:space="preserve">Plugga och träna programmeringsmetodik</t>
   </si>
   <si>
     <t xml:space="preserve">Sätta sig in i exempelprojektets programkod</t>
@@ -247,13 +247,13 @@
     <t xml:space="preserve">Ability to create Products by Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Lägga till fältet ’ItemDescription’ i tabellen ’Items’ (optional)</t>
+    <t xml:space="preserve">Lägga till fältet ’ItemDescription’ i tabellen ’Items’ </t>
   </si>
   <si>
     <t xml:space="preserve">Showing products – Listing product name, category, price and description</t>
   </si>
   <si>
-    <t xml:space="preserve">Description fattas</t>
+    <t xml:space="preserve">'Description’ fattas</t>
   </si>
   <si>
     <t xml:space="preserve">Handling orders - allowing users to place them</t>
@@ -897,7 +897,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1098,6 +1098,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,14 +1111,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,9 +1226,9 @@
   <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="N47" activeCellId="0" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1683,8 +1679,6 @@
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
       <c r="H26" s="27"/>
       <c r="I26" s="33"/>
       <c r="J26" s="46"/>
@@ -1698,14 +1692,12 @@
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
       <c r="G27" s="46"/>
       <c r="H27" s="41"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="L27" s="45"/>
       <c r="AA27" s="0" t="s">
         <v>72</v>
       </c>
@@ -1733,20 +1725,24 @@
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="s">
         <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1775,14 +1771,19 @@
       <c r="K32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>79</v>
       </c>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="52" t="s">
         <v>80</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
@@ -1800,16 +1801,17 @@
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="53"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="53"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
@@ -1823,7 +1825,7 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="47" t="s">
@@ -1847,11 +1849,10 @@
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="49"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="37"/>
       <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="54"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="47" t="s">
@@ -1861,20 +1862,21 @@
         <v>54</v>
       </c>
       <c r="E41" s="26"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="54" t="s">
         <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="37"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="54"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="48" t="s">
@@ -1883,47 +1885,43 @@
       <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="37"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="54"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="54" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="32"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="26"/>
       <c r="AA44" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="54" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="49"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="37"/>
       <c r="J45" s="29"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="54"/>
+      <c r="L45" s="50"/>
       <c r="AA45" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1935,8 +1933,9 @@
       <c r="G46" s="28"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="26"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
       <c r="AA46" s="0" t="s">
         <v>96</v>
       </c>
@@ -1948,8 +1947,8 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="57"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="56"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1958,7 +1957,7 @@
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="58"/>
+      <c r="Z48" s="57"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t xml:space="preserve">KR = Krall</t>
   </si>
@@ -378,6 +378,9 @@
       </rPr>
       <t xml:space="preserve">Grön ruta innebär stor genomgång av hela applikationen</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta av fellistan</t>
   </si>
   <si>
     <t xml:space="preserve">Förbereda och genomföra en redovisning av projektet</t>
@@ -1223,12 +1226,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N47" activeCellId="0" sqref="N47"/>
+      <selection pane="bottomLeft" activeCell="M50" activeCellId="0" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1606,8 +1609,9 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
       <c r="AA20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1656,8 +1660,9 @@
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
       <c r="AA24" s="0" t="s">
         <v>68</v>
       </c>
@@ -1682,8 +1687,9 @@
       <c r="H26" s="27"/>
       <c r="I26" s="33"/>
       <c r="J26" s="46"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1698,6 +1704,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="45"/>
+      <c r="M27" s="25"/>
       <c r="AA27" s="0" t="s">
         <v>72</v>
       </c>
@@ -1740,6 +1747,7 @@
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
+      <c r="M30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
@@ -1752,8 +1760,9 @@
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
       <c r="AA31" s="0" t="s">
         <v>77</v>
       </c>
@@ -1775,6 +1784,7 @@
         <v>79</v>
       </c>
       <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="52" t="s">
@@ -1802,6 +1812,7 @@
       <c r="J36" s="37"/>
       <c r="K36" s="30"/>
       <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="53" t="s">
@@ -1812,6 +1823,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
@@ -1826,6 +1838,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="30"/>
       <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="47" t="s">
@@ -1914,8 +1927,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="37"/>
       <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="50"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="45"/>
       <c r="AA45" s="0" t="s">
         <v>94</v>
       </c>
@@ -1935,29 +1949,48 @@
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="L46" s="26"/>
       <c r="AA46" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="54" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="56"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="56"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="57"/>
+      <c r="Z49" s="57"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t xml:space="preserve">KR = Krall</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">Plugga och träna programmeringsmetodik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jag försöker göra klart de uppgifter jag har kvar</t>
   </si>
   <si>
     <t xml:space="preserve">Sätta sig in i exempelprojektets programkod</t>
@@ -1229,9 +1232,9 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M50" activeCellId="0" sqref="M50"/>
+      <selection pane="bottomLeft" activeCell="R48" activeCellId="0" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1246,7 +1249,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.05"/>
@@ -1610,8 +1614,11 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
       <c r="AA20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1661,8 +1668,11 @@
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
       <c r="AA24" s="0" t="s">
         <v>68</v>
       </c>
@@ -1689,29 +1699,38 @@
       <c r="J26" s="46"/>
       <c r="K26" s="39"/>
       <c r="L26" s="44"/>
-      <c r="M26" s="25"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="25"/>
+      <c r="AA26" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="45"/>
-      <c r="M27" s="25"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="25"/>
       <c r="AA27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -1722,7 +1741,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
@@ -1736,7 +1755,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
@@ -1747,11 +1766,14 @@
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
-      <c r="M30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>54</v>
@@ -1761,15 +1783,18 @@
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
       <c r="K31" s="46"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
       <c r="AA31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
@@ -1781,14 +1806,20 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
@@ -1797,7 +1828,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
@@ -1807,27 +1838,39 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -1837,12 +1880,15 @@
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
@@ -1852,12 +1898,12 @@
       <c r="J39" s="30"/>
       <c r="K39" s="26"/>
       <c r="AA39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
@@ -1869,7 +1915,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
@@ -1880,7 +1926,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
@@ -1893,7 +1939,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
@@ -1905,7 +1951,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
@@ -1914,12 +1960,12 @@
       <c r="I44" s="1"/>
       <c r="J44" s="26"/>
       <c r="AA44" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -1928,15 +1974,18 @@
       <c r="I45" s="37"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="45"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="25"/>
       <c r="AA45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
@@ -1951,12 +2000,12 @@
       <c r="K46" s="30"/>
       <c r="L46" s="26"/>
       <c r="AA46" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -1966,11 +2015,14 @@
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
-      <c r="M47" s="25"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -1985,7 +2037,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>40</v>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -1234,7 +1234,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="R48" activeCellId="0" sqref="R48"/>
+      <selection pane="bottomLeft" activeCell="P46" activeCellId="0" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1999,6 +1999,7 @@
       <c r="J46" s="29"/>
       <c r="K46" s="30"/>
       <c r="L46" s="26"/>
+      <c r="P46" s="25"/>
       <c r="AA46" s="0" t="s">
         <v>97</v>
       </c>

--- a/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
+++ b/Aktivitetsplan - Nätbutikprojektet 2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t xml:space="preserve">KR = Krall</t>
   </si>
@@ -295,6 +295,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Stor uppgift – man behöver nog skapa en helt ny controller för detta. Nödlösning: Admin kan ta bort vilka ordrar som helst och skapa nya ordrar.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -356,7 +359,7 @@
     <t xml:space="preserve">Slutsumman i ordern blir inte korrekt (felmeddelande)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tyder på problem med komma och punkt som decimalavdelare</t>
+    <t xml:space="preserve">Verkar vara problem med komma och punkt som decimalavdelare. Fungerar om man avaktiverar verifieringsfunktionen, men det resulterar i att man kan knappa in vilka tecken som helst.</t>
   </si>
   <si>
     <t xml:space="preserve">Genomföra applikations och systemtester</t>
@@ -1234,7 +1237,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P46" activeCellId="0" sqref="P46"/>
+      <selection pane="bottomLeft" activeCell="W40" activeCellId="0" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1617,8 +1620,9 @@
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
       <c r="AA20" s="43" t="s">
         <v>63</v>
       </c>
@@ -1671,8 +1675,9 @@
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
       <c r="N24" s="39"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
       <c r="AA24" s="0" t="s">
         <v>68</v>
       </c>
@@ -1701,8 +1706,9 @@
       <c r="L26" s="44"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="25"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="25"/>
       <c r="AA26" s="0" t="s">
         <v>71</v>
       </c>
@@ -1722,8 +1728,9 @@
       <c r="L27" s="45"/>
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="25"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="25"/>
       <c r="AA27" s="0" t="s">
         <v>73</v>
       </c>
@@ -1768,8 +1775,9 @@
       <c r="L30" s="50"/>
       <c r="M30" s="46"/>
       <c r="N30" s="44"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="51" t="s">
@@ -1786,8 +1794,9 @@
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="45"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="25"/>
       <c r="AA31" s="0" t="s">
         <v>78</v>
       </c>
@@ -1814,12 +1823,16 @@
       <c r="L33" s="46"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="45"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45"/>
+      <c r="AA33" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>54</v>
@@ -1828,7 +1841,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
@@ -1838,7 +1851,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>54</v>
@@ -1848,12 +1861,13 @@
       <c r="L36" s="46"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>54</v>
@@ -1865,12 +1879,13 @@
       <c r="L37" s="46"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="45"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="45"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>54</v>
@@ -1883,12 +1898,13 @@
       <c r="L38" s="46"/>
       <c r="M38" s="39"/>
       <c r="N38" s="39"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="45"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>54</v>
@@ -1898,12 +1914,12 @@
       <c r="J39" s="30"/>
       <c r="K39" s="26"/>
       <c r="AA39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
@@ -1915,7 +1931,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
@@ -1926,7 +1942,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>54</v>
@@ -1939,7 +1955,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>54</v>
@@ -1951,7 +1967,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>54</v>
@@ -1960,12 +1976,12 @@
       <c r="I44" s="1"/>
       <c r="J44" s="26"/>
       <c r="AA44" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>54</v>
@@ -1977,15 +1993,16 @@
       <c r="L45" s="29"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="25"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="25"/>
       <c r="AA45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
@@ -2000,13 +2017,14 @@
       <c r="K46" s="30"/>
       <c r="L46" s="26"/>
       <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
       <c r="AA46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -2018,12 +2036,13 @@
       <c r="G47" s="0"/>
       <c r="M47" s="27"/>
       <c r="N47" s="28"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="25"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -2038,7 +2057,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>40</v>
